--- a/ship-raw-data-description.xlsx
+++ b/ship-raw-data-description.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajas\Google Drive (raja.enthu.learner@gmail.com)\MTech Intelligent Systems\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80443B00-EF6C-401A-A178-A2533BBE7CA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D15A30-1C73-4200-BACB-195E745C8A19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2388" windowHeight="564" xr2:uid="{5919DCED-A283-4632-80AC-38827E3DCEC9}"/>
+    <workbookView xWindow="1392" yWindow="1392" windowWidth="2388" windowHeight="564" xr2:uid="{5919DCED-A283-4632-80AC-38827E3DCEC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>Voyage_No</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Report_Type</t>
   </si>
   <si>
-    <t>Is it important? How does it affect the M.E consumption</t>
-  </si>
-  <si>
     <t>Speed_Instruction</t>
   </si>
   <si>
@@ -115,9 +111,6 @@
     <t>Barometric_Pressure_millibar</t>
   </si>
   <si>
-    <t>Pressure of vessel?</t>
-  </si>
-  <si>
     <t>Observed_GPS_Distance_nm</t>
   </si>
   <si>
@@ -133,9 +126,6 @@
     <t>Average_RPM</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Sea_Water_Temp_deg_C</t>
   </si>
   <si>
@@ -170,16 +160,60 @@
   </si>
   <si>
     <t>IMO_Number</t>
+  </si>
+  <si>
+    <t>Is it important? How does it affect the M.E consumption (At Sea and EOSP are relevant) Exclude all other records</t>
+  </si>
+  <si>
+    <t>Atmospheric pressure</t>
+  </si>
+  <si>
+    <t>For the report period</t>
+  </si>
+  <si>
+    <t>ME_Shaft_Power_kW</t>
+  </si>
+  <si>
+    <t>ME power available for propulsion</t>
+  </si>
+  <si>
+    <t>LCV_value_of_Fuel_used_kJ_kg</t>
+  </si>
+  <si>
+    <t>Fuel energy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,8 +239,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CB33D7-1532-4503-A62B-817654636817}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,7 +577,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -554,15 +592,15 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -587,171 +625,187 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
+      <c r="A19" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19">
-        <v>45192590</v>
-      </c>
-      <c r="G19">
-        <v>45316161</v>
-      </c>
-      <c r="H19">
-        <f>G19-F19</f>
-        <v>123571</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <v>45192590</v>
+      </c>
+      <c r="G20">
+        <v>45316161</v>
+      </c>
+      <c r="H20">
+        <f>G20-F20</f>
+        <v>123571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <v>162.16669999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <f>H20/H21</f>
+        <v>761.99984337104968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20">
-        <v>162.16669999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21">
-        <f>H19/H20</f>
-        <v>761.99984337104968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>41</v>
+      <c r="A25" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
